--- a/results/01-2021/fim_interactive.xlsx
+++ b/results/01-2021/fim_interactive.xlsx
@@ -416,19 +416,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>-0.4472294074885935</v>
+        <v>-0.4472294074885914</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.04873127066753641</v>
+        <v>-0.04873127066753075</v>
       </c>
       <c r="F2">
-        <v>0.2318136940835876</v>
+        <v>-32.62243268224444</v>
       </c>
       <c r="G2">
-        <v>0.1384476835461522</v>
+        <v>32.99269405987419</v>
       </c>
       <c r="H2">
         <v>-0.4189926482972762</v>
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>-0.7456669684567129</v>
+        <v>-0.7456669684567099</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -458,10 +458,10 @@
         <v>-1.887556559712041</v>
       </c>
       <c r="F3">
-        <v>-1.31159166141865</v>
+        <v>31.55981762409409</v>
       </c>
       <c r="G3">
-        <v>0.03883989562439163</v>
+        <v>-32.83256938988835</v>
       </c>
       <c r="H3">
         <v>-0.6148047939177831</v>
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>-0.6103231932502604</v>
+        <v>-0.6103231932502571</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.3090944267481067</v>
+        <v>-0.3090944267481074</v>
       </c>
       <c r="F4">
-        <v>0.4707108944060808</v>
+        <v>-11.7524214758327</v>
       </c>
       <c r="G4">
-        <v>-0.5107329829851925</v>
+        <v>11.71239938725358</v>
       </c>
       <c r="H4">
         <v>-0.2690723381689949</v>
@@ -515,19 +515,19 @@
         </is>
       </c>
       <c r="C5">
-        <v>-0.8382344239894921</v>
+        <v>-0.8382344239894914</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.107555438830285</v>
+        <v>-1.107555438830287</v>
       </c>
       <c r="F5">
-        <v>-0.7542304097927617</v>
+        <v>-36.12722819046017</v>
       </c>
       <c r="G5">
-        <v>-0.2606953291135496</v>
+        <v>35.11230245155386</v>
       </c>
       <c r="H5">
         <v>-0.09262969992397337</v>
@@ -548,19 +548,19 @@
         </is>
       </c>
       <c r="C6">
-        <v>-0.8806992552352381</v>
+        <v>-0.8806992552352411</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-0.2185905956505204</v>
+        <v>-0.2185905956505294</v>
       </c>
       <c r="F6">
-        <v>0.03794677656077419</v>
+        <v>115.5330813187738</v>
       </c>
       <c r="G6">
-        <v>-0.2790588276696364</v>
+        <v>-115.7741933698826</v>
       </c>
       <c r="H6">
         <v>0.02252145545834179</v>
@@ -581,19 +581,19 @@
         </is>
       </c>
       <c r="C7">
-        <v>-0.2360511149435782</v>
+        <v>-0.236051114943581</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.6910360014545981</v>
+        <v>0.6910360014545993</v>
       </c>
       <c r="F7">
-        <v>0.4176699769362638</v>
+        <v>17.96210851392544</v>
       </c>
       <c r="G7">
-        <v>0.03463379122030326</v>
+        <v>-17.50980474576887</v>
       </c>
       <c r="H7">
         <v>0.238732233298031</v>
@@ -614,19 +614,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.09806882811776675</v>
+        <v>0.0980688281177626</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1.027385345497273</v>
+        <v>1.027385345497267</v>
       </c>
       <c r="F8">
-        <v>0.3854233068740954</v>
+        <v>85.96761120578326</v>
       </c>
       <c r="G8">
-        <v>0.2634165840868962</v>
+        <v>-85.31877131482227</v>
       </c>
       <c r="H8">
         <v>0.3785454545362815</v>
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.5752134274079774</v>
+        <v>0.5752134274079739</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.801022958330558</v>
+        <v>0.8010229583305584</v>
       </c>
       <c r="F9">
-        <v>-0.3246051547334287</v>
+        <v>-31.36420648417333</v>
       </c>
       <c r="G9">
-        <v>-0.3447600652268802</v>
+        <v>30.69484126421302</v>
       </c>
       <c r="H9">
         <v>1.470388178290867</v>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>1.109989812003527</v>
+        <v>1.109989812003526</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -689,10 +689,10 @@
         <v>1.920514942731678</v>
       </c>
       <c r="F10">
-        <v>0.1230989010896827</v>
+        <v>-8.002740665828707</v>
       </c>
       <c r="G10">
-        <v>0.5335658662608733</v>
+        <v>8.659405433179263</v>
       </c>
       <c r="H10">
         <v>1.263850175381122</v>
@@ -713,19 +713,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>1.508614763283712</v>
+        <v>1.508614763283709</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.285535806575336</v>
+        <v>2.285535806575334</v>
       </c>
       <c r="F11">
-        <v>1.052245127335171</v>
+        <v>267.1521843161497</v>
       </c>
       <c r="G11">
-        <v>-0.2965791441100969</v>
+        <v>-266.3965183329246</v>
       </c>
       <c r="H11">
         <v>1.529869823350263</v>
@@ -746,19 +746,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>1.734679676165521</v>
+        <v>1.73467967616552</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.931644997024508</v>
+        <v>1.931644997024509</v>
       </c>
       <c r="F12">
-        <v>0.3185676646894323</v>
+        <v>-215.7098707272581</v>
       </c>
       <c r="G12">
-        <v>-0.2595992058963156</v>
+        <v>215.7688391860512</v>
       </c>
       <c r="H12">
         <v>1.872676538231392</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.443739216222841</v>
+        <v>1.443739216222845</v>
       </c>
       <c r="F13">
-        <v>-0.08532620047935681</v>
+        <v>-165.5821937315746</v>
       </c>
       <c r="G13">
-        <v>-0.02386484856737564</v>
+        <v>165.4730026825278</v>
       </c>
       <c r="H13">
         <v>1.552930265269573</v>
@@ -812,19 +812,19 @@
         </is>
       </c>
       <c r="C14">
-        <v>1.712158073606744</v>
+        <v>1.712158073606745</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.187712274604292</v>
+        <v>1.187712274604294</v>
       </c>
       <c r="F14">
-        <v>0.3456853209154376</v>
+        <v>113.9298917396732</v>
       </c>
       <c r="G14">
-        <v>-0.2574736546801012</v>
+        <v>-113.8416800734379</v>
       </c>
       <c r="H14">
         <v>1.099500608368955</v>
@@ -845,19 +845,19 @@
         </is>
       </c>
       <c r="C15">
-        <v>1.319105706424822</v>
+        <v>1.319105706424825</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7133263378476469</v>
+        <v>0.7133263378476551</v>
       </c>
       <c r="F15">
-        <v>0.0406776650144408</v>
+        <v>-83.35348790404481</v>
       </c>
       <c r="G15">
-        <v>-0.4619483423637046</v>
+        <v>82.93221722669556</v>
       </c>
       <c r="H15">
         <v>1.134597015196911</v>
@@ -878,19 +878,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>1.182519333953414</v>
+        <v>1.182519333953416</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.385299507138875</v>
+        <v>1.385299507138871</v>
       </c>
       <c r="F16">
-        <v>1.665594538201976</v>
+        <v>188.0670841859059</v>
       </c>
       <c r="G16">
-        <v>-1.43490081457891</v>
+        <v>-187.8363904622828</v>
       </c>
       <c r="H16">
         <v>1.154605783515809</v>
@@ -911,19 +911,19 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.9687047098360618</v>
+        <v>0.9687047098360644</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5884807197534322</v>
+        <v>0.588480719753438</v>
       </c>
       <c r="F17">
-        <v>-0.7323423591140148</v>
+        <v>-94.69910925824085</v>
       </c>
       <c r="G17">
-        <v>0.3998565275949437</v>
+        <v>94.36662342672179</v>
       </c>
       <c r="H17">
         <v>0.9209665512725033</v>
@@ -944,19 +944,19 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.8338634252473995</v>
+        <v>0.8338634252474011</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6483471362496426</v>
+        <v>0.6483471362496404</v>
       </c>
       <c r="F18">
-        <v>0.5092651698143085</v>
+        <v>-46.98270726959398</v>
       </c>
       <c r="G18">
-        <v>-0.546989131172936</v>
+        <v>46.94498330823535</v>
       </c>
       <c r="H18">
         <v>0.6860710976082701</v>
@@ -977,19 +977,19 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.6747978935539614</v>
+        <v>0.6747978935539615</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07706421107389422</v>
+        <v>0.07706421107389672</v>
       </c>
       <c r="F19">
-        <v>-0.4041200882597878</v>
+        <v>50.16114680526143</v>
       </c>
       <c r="G19">
-        <v>0.2335694975294421</v>
+        <v>-50.33169739599177</v>
       </c>
       <c r="H19">
         <v>0.24761480180424</v>
@@ -1010,19 +1010,19 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.298536993957445</v>
+        <v>0.2985369939574505</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-0.1197440912471905</v>
+        <v>-0.1197440912471729</v>
       </c>
       <c r="F20">
-        <v>-0.2813714609987538</v>
+        <v>-154.134607606485</v>
       </c>
       <c r="G20">
-        <v>-0.03567393639946731</v>
+        <v>153.8175622090868</v>
       </c>
       <c r="H20">
         <v>0.1973013061510306</v>
@@ -1043,19 +1043,19 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.03504399652784868</v>
+        <v>0.03504399652785231</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-0.465491269964953</v>
+        <v>-0.465491269964955</v>
       </c>
       <c r="F21">
-        <v>0.3398770253391276</v>
+        <v>155.4771585796418</v>
       </c>
       <c r="G21">
-        <v>-0.7314416061911453</v>
+        <v>-155.8687231604939</v>
       </c>
       <c r="H21">
         <v>-0.07392668911293536</v>
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="C22">
-        <v>-0.293725787875409</v>
+        <v>-0.2937257878754035</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-0.6667320013633883</v>
+        <v>-0.6667320013633827</v>
       </c>
       <c r="F22">
-        <v>-0.3550314415416719</v>
+        <v>-228.7387220874565</v>
       </c>
       <c r="G22">
-        <v>-0.2307444377000993</v>
+        <v>228.1529462082147</v>
       </c>
       <c r="H22">
         <v>-0.08095612212161714</v>
@@ -1109,19 +1109,19 @@
         </is>
       </c>
       <c r="C23">
-        <v>-0.4720114912703196</v>
+        <v>-0.4720114912703158</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-0.6360786025057481</v>
+        <v>-0.6360786025057528</v>
       </c>
       <c r="F23">
-        <v>0.02168388493087975</v>
+        <v>137.5031059688362</v>
       </c>
       <c r="G23">
-        <v>-0.1581741428903265</v>
+        <v>-137.6395962267957</v>
       </c>
       <c r="H23">
         <v>-0.4995883445463014</v>
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>-0.7068344034904521</v>
+        <v>-0.7068344034904528</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>-1.059035740127721</v>
       </c>
       <c r="F24">
-        <v>-0.2701579859382386</v>
+        <v>-1.526793970730775</v>
       </c>
       <c r="G24">
-        <v>-0.2764818884085525</v>
+        <v>0.9801540963839841</v>
       </c>
       <c r="H24">
         <v>-0.5123958657809297</v>
@@ -1175,19 +1175,19 @@
         </is>
       </c>
       <c r="C25">
-        <v>-0.7812946812129864</v>
+        <v>-0.7812946812129836</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-0.7633323808550903</v>
+        <v>-0.7633323808550782</v>
       </c>
       <c r="F25">
-        <v>-0.1071728628412014</v>
+        <v>-162.8106733195333</v>
       </c>
       <c r="G25">
-        <v>-0.1249180002665537</v>
+        <v>162.5785824564255</v>
       </c>
       <c r="H25">
         <v>-0.5312415177473352</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C26">
-        <v>-0.8317358555310264</v>
+        <v>-0.8317358555310252</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>-0.8684966986355479</v>
+        <v>-0.8684966986355491</v>
       </c>
       <c r="F26">
-        <v>-0.2767950136222138</v>
+        <v>26.73055938627427</v>
       </c>
       <c r="G26">
-        <v>-0.1302645945694583</v>
+        <v>-27.13761899446595</v>
       </c>
       <c r="H26">
         <v>-0.4614370904438758</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-0.08904151706259777</v>
+        <v>-0.08904151706260732</v>
       </c>
       <c r="F27">
-        <v>0.6877869103813896</v>
+        <v>112.5808108626303</v>
       </c>
       <c r="G27">
-        <v>-0.1683661652429188</v>
+        <v>-112.0613901174919</v>
       </c>
       <c r="H27">
         <v>-0.6084622622010687</v>
@@ -1274,19 +1274,19 @@
         </is>
       </c>
       <c r="C28">
-        <v>-0.7105747315515585</v>
+        <v>-0.7105747315515579</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>-1.121428329652999</v>
+        <v>-1.121428329652997</v>
       </c>
       <c r="F28">
-        <v>-0.4905032062218124</v>
+        <v>-53.58465221075904</v>
       </c>
       <c r="G28">
-        <v>0.03320395040116637</v>
+        <v>53.1273529549384</v>
       </c>
       <c r="H28">
         <v>-0.6641290738323532</v>
@@ -1307,19 +1307,19 @@
         </is>
       </c>
       <c r="C29">
-        <v>-0.7203215409195473</v>
+        <v>-0.7203215409195495</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-0.8023196183270451</v>
+        <v>-0.8023196183270445</v>
       </c>
       <c r="F29">
-        <v>-0.6627889888787315</v>
+        <v>-61.73074600049568</v>
       </c>
       <c r="G29">
-        <v>0.1395514339167008</v>
+        <v>61.20750844553365</v>
       </c>
       <c r="H29">
         <v>-0.2790820633650143</v>
@@ -1340,19 +1340,19 @@
         </is>
       </c>
       <c r="C30">
-        <v>-0.5146106893039307</v>
+        <v>-0.5146106893039317</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-0.04565329217308173</v>
+        <v>-0.04565329217307784</v>
       </c>
       <c r="F30">
-        <v>0.0405326156052338</v>
+        <v>-56.11331344974757</v>
       </c>
       <c r="G30">
-        <v>0.202729765204821</v>
+        <v>56.35657583055762</v>
       </c>
       <c r="H30">
         <v>-0.2889156729831365</v>
@@ -1373,19 +1373,19 @@
         </is>
       </c>
       <c r="C31">
-        <v>-0.6408611199915293</v>
+        <v>-0.6408611199915287</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>-0.5940432398129922</v>
+        <v>-0.5940432398129954</v>
       </c>
       <c r="F31">
-        <v>-0.4482138378535143</v>
+        <v>-66.54057861584251</v>
       </c>
       <c r="G31">
-        <v>0.1914173671366676</v>
+        <v>66.28378214512566</v>
       </c>
       <c r="H31">
         <v>-0.3372467690961455</v>
@@ -1406,19 +1406,19 @@
         </is>
       </c>
       <c r="C32">
-        <v>-0.3481518270618688</v>
+        <v>-0.3481518270618686</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.04940884206564261</v>
+        <v>0.04940884206564339</v>
       </c>
       <c r="F32">
-        <v>0.6845768143843559</v>
+        <v>124.5720433955027</v>
       </c>
       <c r="G32">
-        <v>-0.3565550164851028</v>
+        <v>-124.2440215976034</v>
       </c>
       <c r="H32">
         <v>-0.2786129558336105</v>
@@ -1439,19 +1439,19 @@
         </is>
       </c>
       <c r="C33">
-        <v>-0.1645403332462956</v>
+        <v>-0.1645403332462966</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>-0.06787364306475248</v>
+        <v>-0.06787364306475618</v>
       </c>
       <c r="F33">
-        <v>-0.08640542978502515</v>
+        <v>-39.09835730380509</v>
       </c>
       <c r="G33">
-        <v>0.06632580721215653</v>
+        <v>39.07827768123222</v>
       </c>
       <c r="H33">
         <v>-0.04779402049188386</v>
@@ -1472,19 +1472,19 @@
         </is>
       </c>
       <c r="C34">
-        <v>-0.07987529385605219</v>
+        <v>-0.07987529385605462</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0.2930068653878921</v>
+        <v>0.29300686538789</v>
       </c>
       <c r="F34">
-        <v>0.134181683212793</v>
+        <v>-50.0395380852108</v>
       </c>
       <c r="G34">
-        <v>0.1080155521227334</v>
+        <v>50.28173532054632</v>
       </c>
       <c r="H34">
         <v>0.0508096300523656</v>
@@ -1505,19 +1505,19 @@
         </is>
       </c>
       <c r="C35">
-        <v>0.05488427698913079</v>
+        <v>0.05488427698912862</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>-0.05500495643226036</v>
+        <v>-0.05500495643226247</v>
       </c>
       <c r="F35">
-        <v>0.3175547462742406</v>
+        <v>33.62493977482004</v>
       </c>
       <c r="G35">
-        <v>-0.5011733566315455</v>
+        <v>-33.80855838517734</v>
       </c>
       <c r="H35">
         <v>0.1286136539250445</v>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>0.6936208789454033</v>
+        <v>0.693620878945401</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1547,10 +1547,10 @@
         <v>2.604355249890733</v>
       </c>
       <c r="F36">
-        <v>0.5310600703908137</v>
+        <v>42.63662321767384</v>
       </c>
       <c r="G36">
-        <v>-0.1974623965262828</v>
+        <v>-42.30302554380931</v>
       </c>
       <c r="H36">
         <v>2.270757576026202</v>
@@ -1571,19 +1571,19 @@
         </is>
       </c>
       <c r="C37">
-        <v>1.063957882687769</v>
+        <v>1.063957882687766</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>1.413474371904713</v>
+        <v>1.413474371904702</v>
       </c>
       <c r="F37">
-        <v>-0.002758138597635018</v>
+        <v>-80.3584725322018</v>
       </c>
       <c r="G37">
-        <v>0.3093434144177715</v>
+        <v>80.66505780802193</v>
       </c>
       <c r="H37">
         <v>1.106889096084576</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>1.398890445053029</v>
+        <v>1.398890445053026</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1613,10 +1613,10 @@
         <v>1.632737114848931</v>
       </c>
       <c r="F38">
-        <v>0.5136971469729917</v>
+        <v>1.859815584180811</v>
       </c>
       <c r="G38">
-        <v>-0.2960053567725832</v>
+        <v>-1.642123793980403</v>
       </c>
       <c r="H38">
         <v>1.415045324648523</v>
@@ -1637,19 +1637,19 @@
         </is>
       </c>
       <c r="C39">
-        <v>2.295677988267008</v>
+        <v>2.295677988267006</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>3.532145216423655</v>
+        <v>3.532145216423656</v>
       </c>
       <c r="F39">
-        <v>0.1830775014705948</v>
+        <v>-10.96798095625942</v>
       </c>
       <c r="G39">
-        <v>0.4338389778553179</v>
+        <v>11.58489743558534</v>
       </c>
       <c r="H39">
         <v>2.915228737097742</v>
@@ -1670,19 +1670,19 @@
         </is>
       </c>
       <c r="C40">
-        <v>2.36057690052222</v>
+        <v>2.360576900522218</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>2.86395089891158</v>
+        <v>2.863950898911582</v>
       </c>
       <c r="F40">
-        <v>1.644181498240886</v>
+        <v>47.07172612465938</v>
       </c>
       <c r="G40">
-        <v>-0.7074856204578588</v>
+        <v>-46.13503024687635</v>
       </c>
       <c r="H40">
         <v>1.927255021128552</v>
@@ -1703,19 +1703,19 @@
         </is>
       </c>
       <c r="C41">
-        <v>2.692089184251137</v>
+        <v>2.692089184251135</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>2.73952350682038</v>
+        <v>2.739523506820371</v>
       </c>
       <c r="F41">
-        <v>0.4214418425158024</v>
+        <v>218.808558079143</v>
       </c>
       <c r="G41">
-        <v>-0.44606518048123</v>
+        <v>-218.8331814171084</v>
       </c>
       <c r="H41">
         <v>2.764146844785808</v>
@@ -1736,19 +1736,19 @@
         </is>
       </c>
       <c r="C42">
-        <v>2.847825103372085</v>
+        <v>2.847825103372083</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>2.255680791332724</v>
+        <v>2.255680791332725</v>
       </c>
       <c r="F42">
-        <v>0.6290059163210516</v>
+        <v>36.00652956962631</v>
       </c>
       <c r="G42">
-        <v>-0.7144042446540373</v>
+        <v>-36.09192789795929</v>
       </c>
       <c r="H42">
         <v>2.34107911966571</v>
@@ -1769,19 +1769,19 @@
         </is>
       </c>
       <c r="C43">
-        <v>2.338485565438233</v>
+        <v>2.338485565438228</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1.494787064688244</v>
+        <v>1.494787064688236</v>
       </c>
       <c r="F43">
-        <v>0.4901069572014474</v>
+        <v>-114.5816786271465</v>
       </c>
       <c r="G43">
-        <v>-1.063597864520708</v>
+        <v>114.0081877198272</v>
       </c>
       <c r="H43">
         <v>2.068277972007504</v>
@@ -1802,19 +1802,19 @@
         </is>
       </c>
       <c r="C44">
-        <v>1.921758466403444</v>
+        <v>1.921758466403441</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1.197042502772425</v>
+        <v>1.197042502772435</v>
       </c>
       <c r="F44">
-        <v>0.4203095613777605</v>
+        <v>232.3386578298896</v>
       </c>
       <c r="G44">
-        <v>-0.37639879104271</v>
+        <v>-232.2947470595545</v>
       </c>
       <c r="H44">
         <v>1.153131732437375</v>
@@ -1841,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.1913936891530998</v>
+        <v>0.1913936891531003</v>
       </c>
       <c r="F45">
-        <v>0.08455124436341505</v>
+        <v>16.79937784132898</v>
       </c>
       <c r="G45">
-        <v>-0.9266923783968273</v>
+        <v>-17.64151897536239</v>
       </c>
       <c r="H45">
         <v>1.033534823186512</v>
@@ -1868,19 +1868,19 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.7778180934166877</v>
+        <v>0.7778180934166874</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.2280491170529789</v>
+        <v>0.228049117052979</v>
       </c>
       <c r="F46">
-        <v>-0.7063634794243945</v>
+        <v>-10.63259275496783</v>
       </c>
       <c r="G46">
-        <v>-0.08829624979960171</v>
+        <v>9.837933025743839</v>
       </c>
       <c r="H46">
         <v>1.022708846276975</v>
@@ -1901,19 +1901,19 @@
         </is>
       </c>
       <c r="C47">
-        <v>0.04523267965381184</v>
+        <v>0.04523267965381517</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>-1.43555459036326</v>
+        <v>-1.435554590363253</v>
       </c>
       <c r="F47">
-        <v>-0.7791842320308732</v>
+        <v>-137.7149621710444</v>
       </c>
       <c r="G47">
-        <v>-0.5207276274948131</v>
+        <v>136.4150503115187</v>
       </c>
       <c r="H47">
         <v>-0.1356427308375739</v>
@@ -1940,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>-1.317036575972883</v>
+        <v>-1.317036575972887</v>
       </c>
       <c r="F48">
-        <v>-0.1791826590862452</v>
+        <v>-60.67232139598159</v>
       </c>
       <c r="G48">
-        <v>-0.6686679888322142</v>
+        <v>59.82447074806313</v>
       </c>
       <c r="H48">
         <v>-0.4691859280544238</v>
@@ -1967,19 +1967,19 @@
         </is>
       </c>
       <c r="C49">
-        <v>-1.172062742914462</v>
+        <v>-1.172062742914464</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>-2.163708922374685</v>
+        <v>-2.163708922374694</v>
       </c>
       <c r="F49">
-        <v>-1.410076980392139</v>
+        <v>-111.2147208351003</v>
       </c>
       <c r="G49">
-        <v>-0.05152418484441068</v>
+        <v>109.7531196698637</v>
       </c>
       <c r="H49">
         <v>-0.7021077571381356</v>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>-1.500374486035061</v>
+        <v>-1.500374486035063</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2009,10 +2009,10 @@
         <v>-1.085197855429417</v>
       </c>
       <c r="F50">
-        <v>-0.2105533183890024</v>
+        <v>95.99320596485227</v>
       </c>
       <c r="G50">
-        <v>-0.1404336047976929</v>
+        <v>-96.34419288803896</v>
       </c>
       <c r="H50">
         <v>-0.7342109322427215</v>
@@ -2033,19 +2033,19 @@
         </is>
       </c>
       <c r="C51">
-        <v>-1.505784145912362</v>
+        <v>-1.50578414591237</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>-1.457193229872468</v>
+        <v>-1.457193229872479</v>
       </c>
       <c r="F51">
-        <v>-0.3909270564522251</v>
+        <v>-107.063493746184</v>
       </c>
       <c r="G51">
-        <v>-0.2560200781047454</v>
+        <v>106.416546611627</v>
       </c>
       <c r="H51">
         <v>-0.8102460953154972</v>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>-1.49741544846847</v>
+        <v>-1.497415448468476</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2075,10 +2075,10 @@
         <v>-1.283561786197312</v>
       </c>
       <c r="F52">
-        <v>-0.6442132037942118</v>
+        <v>-6.396782880285246</v>
       </c>
       <c r="G52">
-        <v>-0.06640099407624728</v>
+        <v>5.686168682414786</v>
       </c>
       <c r="H52">
         <v>-0.5729475883268532</v>
@@ -2099,19 +2099,19 @@
         </is>
       </c>
       <c r="C53">
-        <v>-1.170966062992836</v>
+        <v>-1.17096606299284</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>-0.8579113804721512</v>
+        <v>-0.8579113804721517</v>
       </c>
       <c r="F53">
-        <v>-0.07052941796100387</v>
+        <v>-59.94838106418067</v>
       </c>
       <c r="G53">
-        <v>-0.3554763575157842</v>
+        <v>59.52237528870388</v>
       </c>
       <c r="H53">
         <v>-0.4319056049953631</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C54">
-        <v>-1.29118692832124</v>
+        <v>-1.291186928321243</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>-1.56608131674303</v>
+        <v>-1.566081316743029</v>
       </c>
       <c r="F54">
-        <v>-0.8865916234440627</v>
+        <v>-19.70928856379192</v>
       </c>
       <c r="G54">
-        <v>-0.1832364051070537</v>
+        <v>18.6394605352408</v>
       </c>
       <c r="H54">
         <v>-0.4962532881919139</v>
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>-1.783417405602021</v>
+        <v>-1.78341740560202</v>
       </c>
       <c r="F55">
-        <v>-1.047790882965999</v>
+        <v>36.23672066625143</v>
       </c>
       <c r="G55">
-        <v>0.04953696020514492</v>
+        <v>-37.23497458901228</v>
       </c>
       <c r="H55">
         <v>-0.785163482841167</v>
@@ -2198,19 +2198,19 @@
         </is>
       </c>
       <c r="C56">
-        <v>-1.375809031320731</v>
+        <v>-1.375809031320733</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>-1.295826022465723</v>
+        <v>-1.295826022465729</v>
       </c>
       <c r="F56">
-        <v>-0.3471829962638515</v>
+        <v>-101.8204103320876</v>
       </c>
       <c r="G56">
-        <v>-0.0966042891959619</v>
+        <v>101.3766230466278</v>
       </c>
       <c r="H56">
         <v>-0.8520387370059094</v>
@@ -2231,19 +2231,19 @@
         </is>
       </c>
       <c r="C57">
-        <v>-1.449554130322924</v>
+        <v>-1.449554130322927</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>-1.152891776480923</v>
+        <v>-1.152891776480928</v>
       </c>
       <c r="F57">
-        <v>-0.6132388212289077</v>
+        <v>81.65478312637543</v>
       </c>
       <c r="G57">
-        <v>-0.1028635192602457</v>
+        <v>-82.37088546686459</v>
       </c>
       <c r="H57">
         <v>-0.43678943599177</v>
@@ -2264,19 +2264,19 @@
         </is>
       </c>
       <c r="C58">
-        <v>-1.404072369009825</v>
+        <v>-1.404072369009827</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>-1.384154271490635</v>
+        <v>-1.38415427149063</v>
       </c>
       <c r="F58">
-        <v>-0.9172888700772799</v>
+        <v>-73.74255266259199</v>
       </c>
       <c r="G58">
-        <v>0.01540737794330799</v>
+        <v>72.84067117045802</v>
       </c>
       <c r="H58">
         <v>-0.4822727793566633</v>
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>-1.282499950933604</v>
+        <v>-1.282499950933607</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2306,10 +2306,10 @@
         <v>-1.29712773329714</v>
       </c>
       <c r="F59">
-        <v>-0.2587432465973415</v>
+        <v>-26.32964165540033</v>
       </c>
       <c r="G59">
-        <v>-0.3629080917018036</v>
+        <v>25.70799031710118</v>
       </c>
       <c r="H59">
         <v>-0.6754763949979944</v>
@@ -2336,13 +2336,13 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>-0.7502484479585196</v>
+        <v>-0.7502484479585174</v>
       </c>
       <c r="F60">
-        <v>-0.09302646274323331</v>
+        <v>30.5439299742126</v>
       </c>
       <c r="G60">
-        <v>-0.1298910337959616</v>
+        <v>-30.76684747075179</v>
       </c>
       <c r="H60">
         <v>-0.5273309514193247</v>
@@ -2363,19 +2363,19 @@
         </is>
       </c>
       <c r="C61">
-        <v>-0.9009708437589388</v>
+        <v>-0.9009708437589385</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>-0.1723529222894641</v>
+        <v>-0.1723529222894654</v>
       </c>
       <c r="F61">
-        <v>0.03469619020211948</v>
+        <v>24.35265251717145</v>
       </c>
       <c r="G61">
-        <v>0.1381184495505191</v>
+        <v>-24.17983787741881</v>
       </c>
       <c r="H61">
         <v>-0.3451675620421027</v>
@@ -2396,19 +2396,19 @@
         </is>
       </c>
       <c r="C62">
-        <v>-0.6903070646953389</v>
+        <v>-0.6903070646953416</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>-0.5414991552362352</v>
+        <v>-0.5414991552362421</v>
       </c>
       <c r="F62">
-        <v>-0.8456653475137066</v>
+        <v>-178.0255510128367</v>
       </c>
       <c r="G62">
-        <v>0.4977560396995079</v>
+        <v>177.6776417050225</v>
       </c>
       <c r="H62">
         <v>-0.1935898474220364</v>
@@ -2429,19 +2429,19 @@
         </is>
       </c>
       <c r="C63">
-        <v>-0.3472221268371661</v>
+        <v>-0.3472221268371698</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.07521201813555149</v>
+        <v>0.0752120181355477</v>
       </c>
       <c r="F63">
-        <v>0.0488266565076218</v>
+        <v>42.21040963311569</v>
       </c>
       <c r="G63">
-        <v>0.00794499122983091</v>
+        <v>-42.15363798537824</v>
       </c>
       <c r="H63">
         <v>0.01844037039809878</v>
@@ -2462,19 +2462,19 @@
         </is>
       </c>
       <c r="C64">
-        <v>-0.08798741100362778</v>
+        <v>-0.08798741100363178</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.2866904153756338</v>
+        <v>0.2866904153756346</v>
       </c>
       <c r="F64">
-        <v>-0.07135988355089964</v>
+        <v>-26.28219405621913</v>
       </c>
       <c r="G64">
-        <v>0.3696321006761685</v>
+        <v>26.5804662733444</v>
       </c>
       <c r="H64">
         <v>-0.01158180174963501</v>
@@ -2495,19 +2495,19 @@
         </is>
       </c>
       <c r="C65">
-        <v>-0.03624215653977936</v>
+        <v>-0.03624215653978331</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.03462809556592956</v>
+        <v>0.03462809556592843</v>
       </c>
       <c r="F65">
-        <v>-0.04123200610439566</v>
+        <v>74.63404675344475</v>
       </c>
       <c r="G65">
-        <v>0.05673608506707493</v>
+        <v>-74.61854267448207</v>
       </c>
       <c r="H65">
         <v>0.01912401660325029</v>
@@ -2528,19 +2528,19 @@
         </is>
       </c>
       <c r="C66">
-        <v>0.07383734118973218</v>
+        <v>0.07383734118972982</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>-0.101181164318189</v>
+        <v>-0.1011811643181896</v>
       </c>
       <c r="F66">
-        <v>0.1305714754136182</v>
+        <v>-55.24281810543873</v>
       </c>
       <c r="G66">
-        <v>-0.1739916507745391</v>
+        <v>55.19939793007781</v>
       </c>
       <c r="H66">
         <v>-0.05776098895726807</v>
@@ -2561,19 +2561,19 @@
         </is>
       </c>
       <c r="C67">
-        <v>0.1345108096509262</v>
+        <v>0.1345108096509251</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.3179058919803275</v>
+        <v>0.3179058919803287</v>
       </c>
       <c r="F67">
-        <v>-0.0095204543947928</v>
+        <v>54.1009219416686</v>
       </c>
       <c r="G67">
-        <v>0.3618699123118419</v>
+        <v>-53.74857248375154</v>
       </c>
       <c r="H67">
         <v>-0.0344435659367216</v>
@@ -2594,19 +2594,19 @@
         </is>
       </c>
       <c r="C68">
-        <v>-0.05578926065875286</v>
+        <v>-0.05578926065875411</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>-0.4745098658630824</v>
+        <v>-0.4745098658630821</v>
       </c>
       <c r="F68">
-        <v>-0.2028730263807215</v>
+        <v>-15.25857896720592</v>
       </c>
       <c r="G68">
-        <v>-0.1980140598340873</v>
+        <v>14.85769188099111</v>
       </c>
       <c r="H68">
         <v>-0.07362277964827352</v>
@@ -2627,19 +2627,19 @@
         </is>
       </c>
       <c r="C69">
-        <v>-0.08758363897545658</v>
+        <v>-0.08758363897545747</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>-0.09254941770088529</v>
+        <v>-0.09254941770088498</v>
       </c>
       <c r="F69">
-        <v>-0.0594327661714883</v>
+        <v>12.35292402012233</v>
       </c>
       <c r="G69">
-        <v>0.1054090751596382</v>
+        <v>-12.30694771113418</v>
       </c>
       <c r="H69">
         <v>-0.1385257266890352</v>
@@ -2660,19 +2660,19 @@
         </is>
       </c>
       <c r="C70">
-        <v>-0.1121258028506517</v>
+        <v>-0.1121258028506518</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>-0.1993498198189695</v>
+        <v>-0.1993498198189671</v>
       </c>
       <c r="F70">
-        <v>-0.1469082386613492</v>
+        <v>-41.66969826640097</v>
       </c>
       <c r="G70">
-        <v>0.05240041216595906</v>
+        <v>41.57519043990558</v>
       </c>
       <c r="H70">
         <v>-0.1048419933235793</v>
@@ -2693,19 +2693,19 @@
         </is>
       </c>
       <c r="C71">
-        <v>-0.2442426983605639</v>
+        <v>-0.2442426983605643</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>-0.2105616900593215</v>
+        <v>-0.2105616900593213</v>
       </c>
       <c r="F71">
-        <v>-0.2842812308453224</v>
+        <v>-5.546793987892624</v>
       </c>
       <c r="G71">
-        <v>0.01102558298453079</v>
+        <v>5.273538340031832</v>
       </c>
       <c r="H71">
         <v>0.0626939578014702</v>
@@ -2732,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.07546623696688871</v>
+        <v>0.07546623696689048</v>
       </c>
       <c r="F72">
-        <v>0.1101517719974749</v>
+        <v>20.08147771866089</v>
       </c>
       <c r="G72">
-        <v>-0.1229138139409729</v>
+        <v>-20.09423976060439</v>
       </c>
       <c r="H72">
         <v>0.08822827891038665</v>
@@ -2759,19 +2759,19 @@
         </is>
       </c>
       <c r="C73">
-        <v>-0.1408247266725457</v>
+        <v>-0.1408247266725439</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>-0.2288536337787834</v>
+        <v>-0.228853633778776</v>
       </c>
       <c r="F73">
-        <v>-0.3642509696606954</v>
+        <v>-119.805596062828</v>
       </c>
       <c r="G73">
-        <v>0.1086193414943325</v>
+        <v>119.5499644346616</v>
       </c>
       <c r="H73">
         <v>0.02677799438757951</v>
@@ -2792,19 +2792,19 @@
         </is>
       </c>
       <c r="C74">
-        <v>-0.08112184783705798</v>
+        <v>-0.08112184783705674</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0.03946169552298145</v>
+        <v>0.03946169552298168</v>
       </c>
       <c r="F74">
-        <v>0.2237569875946429</v>
+        <v>5.600360091667192</v>
       </c>
       <c r="G74">
-        <v>-0.02712450934502616</v>
+        <v>-5.403727613417575</v>
       </c>
       <c r="H74">
         <v>-0.1571707827266353</v>
@@ -2825,19 +2825,19 @@
         </is>
       </c>
       <c r="C75">
-        <v>-0.02387626252182809</v>
+        <v>-0.02387626252182661</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0.01842065120159805</v>
+        <v>0.01842065120159926</v>
       </c>
       <c r="F75">
-        <v>-0.01311419685234618</v>
+        <v>-11.79723288028537</v>
       </c>
       <c r="G75">
-        <v>-0.03836760891619392</v>
+        <v>11.74575107451683</v>
       </c>
       <c r="H75">
         <v>0.06990245697013815</v>
@@ -2858,19 +2858,19 @@
         </is>
       </c>
       <c r="C76">
-        <v>0.0640903360647751</v>
+        <v>0.06409033606477557</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.4273326313133015</v>
+        <v>0.4273326313132992</v>
       </c>
       <c r="F76">
-        <v>0.007741184328022455</v>
+        <v>-25.91097756196542</v>
       </c>
       <c r="G76">
-        <v>0.1820306418640798</v>
+        <v>26.10074938815752</v>
       </c>
       <c r="H76">
         <v>0.2375608051211992</v>
@@ -2891,19 +2891,19 @@
         </is>
       </c>
       <c r="C77">
-        <v>0.1626283289283681</v>
+        <v>0.1626283289283674</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.1652983376755887</v>
+        <v>0.1652983376755912</v>
       </c>
       <c r="F77">
-        <v>0.1832164717785813</v>
+        <v>54.71446285714133</v>
       </c>
       <c r="G77">
-        <v>-0.0655278868595966</v>
+        <v>-54.59677427222235</v>
       </c>
       <c r="H77">
         <v>0.04760975275660394</v>
@@ -2924,19 +2924,19 @@
         </is>
       </c>
       <c r="C78">
-        <v>0.04574228611787653</v>
+        <v>0.04574228611787379</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>-0.4280824757189849</v>
+        <v>-0.4280824757189927</v>
       </c>
       <c r="F78">
-        <v>-0.0319629231639949</v>
+        <v>-95.94816388141294</v>
       </c>
       <c r="G78">
-        <v>-0.4472970132207758</v>
+        <v>95.46890394502816</v>
       </c>
       <c r="H78">
         <v>0.05117746066578584</v>
@@ -2957,19 +2957,19 @@
         </is>
       </c>
       <c r="C79">
-        <v>0.09398893107815878</v>
+        <v>0.09398893107815677</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.211407231042727</v>
+        <v>0.2114072310427312</v>
       </c>
       <c r="F79">
-        <v>-0.1261415442716636</v>
+        <v>45.78147470439528</v>
       </c>
       <c r="G79">
-        <v>0.234931818107759</v>
+        <v>-45.67268443055918</v>
       </c>
       <c r="H79">
         <v>0.1026169572066317</v>
@@ -2990,19 +2990,19 @@
         </is>
       </c>
       <c r="C80">
-        <v>0.1406467787558488</v>
+        <v>0.140646778755848</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0.6139640220240616</v>
+        <v>0.613964022024064</v>
       </c>
       <c r="F80">
-        <v>0.43627845986265</v>
+        <v>-39.91728403630469</v>
       </c>
       <c r="G80">
-        <v>0.1023935315640581</v>
+        <v>40.4559560277314</v>
       </c>
       <c r="H80">
         <v>0.07529203059735357</v>
@@ -3023,19 +3023,19 @@
         </is>
       </c>
       <c r="C81">
-        <v>0.1993522223174717</v>
+        <v>0.1993522223174696</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.4001201119220801</v>
+        <v>0.4001201119220779</v>
       </c>
       <c r="F81">
-        <v>0.1698509031992773</v>
+        <v>30.73965728054297</v>
       </c>
       <c r="G81">
-        <v>-0.117298132789972</v>
+        <v>-30.68710451013367</v>
       </c>
       <c r="H81">
         <v>0.3475673415127749</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C82">
-        <v>0.4267748648149273</v>
+        <v>0.4267748648149271</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0.4816080942708375</v>
+        <v>0.4816080942708372</v>
       </c>
       <c r="F82">
-        <v>0.3437108920115783</v>
+        <v>9.701970988520554</v>
       </c>
       <c r="G82">
-        <v>-0.2466962259924505</v>
+        <v>-9.604956322501426</v>
       </c>
       <c r="H82">
         <v>0.3845934282517096</v>
@@ -3089,19 +3089,19 @@
         </is>
       </c>
       <c r="C83">
-        <v>0.3951899724688835</v>
+        <v>0.3951899724688821</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0.08506766165855166</v>
+        <v>0.08506766165855104</v>
       </c>
       <c r="F83">
-        <v>-0.02351814460598127</v>
+        <v>34.3177867998446</v>
       </c>
       <c r="G83">
-        <v>-0.07249663819006502</v>
+        <v>-34.41380158264065</v>
       </c>
       <c r="H83">
         <v>0.181082444454598</v>
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="C84">
-        <v>3.814143363154271</v>
+        <v>3.814143363154268</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -3131,10 +3131,10 @@
         <v>14.28977758476561</v>
       </c>
       <c r="F84">
-        <v>2.31906979058428</v>
+        <v>4.947466343127509</v>
       </c>
       <c r="G84">
-        <v>-2.205623585545855</v>
+        <v>-4.834020138089085</v>
       </c>
       <c r="H84">
         <v>14.17633137972719</v>
@@ -3155,19 +3155,19 @@
         </is>
       </c>
       <c r="C85">
-        <v>4.615923064585026</v>
+        <v>4.615923064585024</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>3.607238917645103</v>
+        <v>3.607238917645102</v>
       </c>
       <c r="F85">
-        <v>-0.4945785725116473</v>
+        <v>7.332912058943452</v>
       </c>
       <c r="G85">
-        <v>-0.7431116546444677</v>
+        <v>-8.570602286099568</v>
       </c>
       <c r="H85">
         <v>4.844929144801218</v>
@@ -3188,22 +3188,13 @@
         </is>
       </c>
       <c r="C86">
-        <v>3.738774692380102</v>
+        <v>5.39733077042859</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
-      <c r="E86">
-        <v>-3.026985394548855</v>
-      </c>
-      <c r="F86">
-        <v>0.2005940950032006</v>
-      </c>
-      <c r="G86">
-        <v>-0.3673114002360622</v>
-      </c>
       <c r="H86">
-        <v>-2.860268089315993</v>
+        <v>-3.074652117222915</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -3221,22 +3212,13 @@
         </is>
       </c>
       <c r="C87">
-        <v>5.559981510195589</v>
+        <v>6.277873584425228</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
-      <c r="E87">
-        <v>7.3698949329205</v>
-      </c>
-      <c r="F87">
-        <v>1.982552178870741</v>
-      </c>
-      <c r="G87">
-        <v>0.1641566356977335</v>
-      </c>
       <c r="H87">
-        <v>5.223186118352026</v>
+        <v>4.367791853622886</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -3254,22 +3236,13 @@
         </is>
       </c>
       <c r="C88">
-        <v>1.137011959877301</v>
+        <v>3.607238917645101</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
-      <c r="E88">
-        <v>-3.402100616507544</v>
-      </c>
-      <c r="F88">
-        <v>-0.6924794352765421</v>
-      </c>
-      <c r="G88">
-        <v>0.2539920360395043</v>
-      </c>
       <c r="H88">
-        <v>-2.963613217270506</v>
+        <v>-4.122529747636146</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -3287,22 +3260,13 @@
         </is>
       </c>
       <c r="C89">
-        <v>-1.206409713280086</v>
+        <v>3.607238917645101</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
-      <c r="E89">
-        <v>-5.766447774984444</v>
-      </c>
-      <c r="F89">
-        <v>-0.870145153811781</v>
-      </c>
-      <c r="G89">
-        <v>-0.157942597920508</v>
-      </c>
       <c r="H89">
-        <v>-4.738360023252155</v>
+        <v>-5.885439015267418</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -3320,22 +3284,13 @@
         </is>
       </c>
       <c r="C90">
-        <v>-0.9480192944861672</v>
+        <v>3.607238917645101</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
-      <c r="E90">
-        <v>-1.993423719373181</v>
-      </c>
-      <c r="F90">
-        <v>-0.171893517168879</v>
-      </c>
-      <c r="G90">
-        <v>0.03567647282246397</v>
-      </c>
       <c r="H90">
-        <v>-1.857206675026766</v>
+        <v>-3.133129767648511</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -3353,22 +3308,13 @@
         </is>
       </c>
       <c r="C91">
-        <v>-3.344155676585456</v>
+        <v>3.607238917645101</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
-      <c r="E91">
-        <v>-2.214650595476656</v>
-      </c>
-      <c r="F91">
-        <v>-0.6981285203870229</v>
-      </c>
-      <c r="G91">
-        <v>0.09128329110031413</v>
-      </c>
       <c r="H91">
-        <v>-1.607805366189948</v>
+        <v>-2.849525757349893</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -3386,22 +3332,13 @@
         </is>
       </c>
       <c r="C92">
-        <v>-3.00929830641957</v>
+        <v>3.607238917645101</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
-      <c r="E92">
-        <v>-2.062671135843999</v>
-      </c>
-      <c r="F92">
-        <v>-0.0565513016082707</v>
-      </c>
-      <c r="G92">
-        <v>-0.01234642567019492</v>
-      </c>
       <c r="H92">
-        <v>-1.993773408565533</v>
+        <v>-3.411170272184587</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -3419,22 +3356,13 @@
         </is>
       </c>
       <c r="C93">
-        <v>-1.740247042006142</v>
+        <v>3.607238917645101</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
-      <c r="E93">
-        <v>-0.6902427173307312</v>
-      </c>
-      <c r="F93">
-        <v>-0.03349732029465677</v>
-      </c>
-      <c r="G93">
-        <v>-0.07347397295048411</v>
-      </c>
       <c r="H93">
-        <v>-0.5832714240855903</v>
+        <v>-2.351825462077625</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -3452,22 +3380,13 @@
         </is>
       </c>
       <c r="C94">
-        <v>-1.287716044876894</v>
+        <v>3.607238917645101</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
-      <c r="E94">
-        <v>-0.1832997308561881</v>
-      </c>
-      <c r="F94">
-        <v>-0.0662501113593158</v>
-      </c>
-      <c r="G94">
-        <v>-0.1261756957067537</v>
-      </c>
       <c r="H94">
-        <v>0.009126076209881323</v>
+        <v>-1.743846543610188</v>
       </c>
       <c r="I94">
         <v>1</v>
